--- a/biology/Zoologie/Eristalinus/Eristalinus.xlsx
+++ b/biology/Zoologie/Eristalinus/Eristalinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eristalinus est un genre d'insectes diptères du sous-ordre des Brachycera (les brachycères sont des mouches muscoïdes aux antennes courtes), de la famille des Syrphidae, de la sous-famille des Eristalinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les principales espèces sont les suivantes[1],[2],[3],[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les principales espèces sont les suivantes :
 Sous-genre : Eristalinus/Lathyrophthalmus (81 espèces; distribution mondiale introduite dans le Nouveau Monde et Australasie)
 Eristalinus aeneus (Scopoli, 1763)
 Eristalinus dissimilis (Adams, 1905)
@@ -525,13 +539,13 @@
 Eristalinus modestus (Wiedemann, 1818)
 Eristalinus myiatropinus (Speiser, 1910)
 Eristalinus punctulatus Macquart, 1847
-Eristalinus quinquelineatus (Fabricius, 1781)[5]
-Eristalinus sepulchralis (Linnaeus, 1758)[5]
+Eristalinus quinquelineatus (Fabricius, 1781)
+Eristalinus sepulchralis (Linnaeus, 1758)
 Eristalinus tabanoides (Jaennicke, 1867)
 Eristalinus trizonatus (Bigot, 1858)
 Eristalinus vicarians Bezzi, 1915
 Eristalinus xanthopus Bezzi, 1915
-Sous-genre : Eristalodes (13 espèces; Paléarctique, Afrotropical, Oriental. Introduite dans le  Nouveau Monde)[6]
+Sous-genre : Eristalodes (13 espèces; Paléarctique, Afrotropical, Oriental. Introduite dans le  Nouveau Monde)
 Eristalinus barclayi Bezzi, 1915
 Eristalinus fuscicornis (Karsch, 1887)
 Eristalinus megacephalus (Rossi, 1794)
@@ -542,7 +556,7 @@
 Eristalinus taeniaticeps Becker, 1922
 Sous-genre : Merodonoides (5 espèces; Afrotropical, Oriental)
 Eristalis circulis Curran 1931b
-Sous-genre : Lathyrophthalmus selon NCBI  (12 février 2023)[7] :
+Sous-genre : Lathyrophthalmus selon NCBI  (12 février 2023) :
 Eristalinus punctulatus
 Eristalinus quinquelineatus
 Eristalinus quinquestriatus</t>
@@ -573,9 +587,11 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (12 février 2023)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (12 février 2023) :
 Eristalinus aeneus
 Eristalinus megacephalus
 Eristalinus sepulchralis
